--- a/data/data_check.xlsx
+++ b/data/data_check.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gibraannegron/Desktop/Data_Journalism/Data_Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gibraannegron/Desktop/Data_Journalism/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t>geography</t>
   </si>
@@ -92,9 +92,6 @@
     <t>AK</t>
   </si>
   <si>
-    <t>alco</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>AR</t>
-  </si>
-  <si>
-    <t>physicaly</t>
   </si>
   <si>
     <t>California</t>
@@ -726,9 +720,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -864,7 +863,7 @@
         <v>80.8</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O3" s="1">
         <f>CORREL(C2:C53,J2:J53)</f>
@@ -893,10 +892,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
       <c r="C4">
         <v>36.9</v>
@@ -958,10 +957,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
       </c>
       <c r="C5">
         <v>37.799999999999997</v>
@@ -994,7 +993,7 @@
         <v>69.400000000000006</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O5" s="1">
         <f>CORREL(C2:C53,L2:L53)</f>
@@ -1023,10 +1022,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -1063,10 +1062,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>36.299999999999997</v>
@@ -1103,10 +1102,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>40.5</v>
@@ -1143,10 +1142,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>39.6</v>
@@ -1183,10 +1182,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>33.799999999999997</v>
@@ -1223,10 +1222,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>41.6</v>
@@ -1263,10 +1262,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>36.1</v>
@@ -1303,10 +1302,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>38.1</v>
@@ -1343,10 +1342,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>35.9</v>
@@ -1383,10 +1382,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>37.5</v>
@@ -1423,10 +1422,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>37.4</v>
@@ -1463,10 +1462,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>38.200000000000003</v>
@@ -1503,10 +1502,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>36.200000000000003</v>
@@ -1543,10 +1542,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>38.5</v>
@@ -1583,10 +1582,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>36.1</v>
@@ -1623,10 +1622,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>44.1</v>
@@ -1663,10 +1662,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>38.299999999999997</v>
@@ -1703,10 +1702,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>39.4</v>
@@ -1743,10 +1742,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>39.6</v>
@@ -1783,10 +1782,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>37.799999999999997</v>
@@ -1823,10 +1822,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>36.700000000000003</v>
@@ -1863,10 +1862,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>38.5</v>
@@ -1903,10 +1902,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <v>39.6</v>
@@ -1943,10 +1942,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>36.200000000000003</v>
@@ -1983,10 +1982,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>37.4</v>
@@ -2023,10 +2022,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>42.5</v>
@@ -2063,10 +2062,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>39.4</v>
@@ -2103,10 +2102,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>37.200000000000003</v>
@@ -2143,10 +2142,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>38.200000000000003</v>
@@ -2183,10 +2182,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>38.299999999999997</v>
@@ -2223,10 +2222,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>35.1</v>
@@ -2263,10 +2262,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>39.4</v>
@@ -2303,10 +2302,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>36.200000000000003</v>
@@ -2343,10 +2342,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>39.299999999999997</v>
@@ -2383,10 +2382,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>40.700000000000003</v>
@@ -2423,10 +2422,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>39.799999999999997</v>
@@ -2463,10 +2462,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>38.799999999999997</v>
@@ -2503,10 +2502,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>36.6</v>
@@ -2543,10 +2542,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>38.6</v>
@@ -2583,10 +2582,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>34.299999999999997</v>
@@ -2623,10 +2622,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46">
         <v>30.5</v>
@@ -2663,10 +2662,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47">
         <v>42.8</v>
@@ -2703,10 +2702,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48">
         <v>37.700000000000003</v>
@@ -2743,10 +2742,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C49">
         <v>37.5</v>
@@ -2783,10 +2782,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50">
         <v>41.9</v>
@@ -2823,10 +2822,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C51">
         <v>39.200000000000003</v>
@@ -2863,10 +2862,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C52">
         <v>36.6</v>
@@ -2903,10 +2902,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53">
         <v>39.299999999999997</v>
